--- a/Templates/metabolic rate/17_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/17_template_metabolic_rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BFBDFC-CC2B-4F75-874A-F6E29B9FF19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC96CD44-71AA-468A-8D94-84C39DF8AC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="164">
   <si>
     <t>Column_name</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
+  </si>
+  <si>
+    <t>date_of_collection_final</t>
   </si>
 </sst>
 </file>
@@ -1042,11 +1045,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98746876-B21A-4F76-8F62-B74AFF3EEF00}">
   <dimension ref="A1:BM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="19" topLeftCell="P20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1107,7 @@
         <v>76</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>25</v>
@@ -1258,9 +1261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1532,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>108</v>
